--- a/data/Vol_PSH.xlsx
+++ b/data/Vol_PSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t>Номер ПОр.</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Ремонт ВЛ 500 кВ Балаковская АЭС – Трубная и ВЛ 500 кВ Балашовская – Фроловская (Р89+Р90)</t>
   </si>
   <si>
-    <t>КПР «Волгоградское из ОЭС Юга+ ВЛ 500 кВ Победа - Шахты» МВт/ступень</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ремонт ВЛ 500 кВ Балашовская – Липецкая Восточная ВЛ 500 кВ Балашовская – Фроловская (Р88+Р90) </t>
   </si>
   <si>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>Сезон «ЗИМА»</t>
+  </si>
+  <si>
+    <t>Количество Блоков Ростовской АЭС находящихся в работе</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -290,17 +293,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,11 +308,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,274 +627,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1">
         <v>1550</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1600</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1650</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1700</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1750</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1800</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1850</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1900</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1950</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2000</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2050</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2100</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2150</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>2200</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>2250</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2300</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2350</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2400</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>2450</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>2500</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2550</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>2600</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>2650</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>2700</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2750</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2800</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2850</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2900</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2950</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>3000</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>3050</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>3100</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10">
         <v>7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="10">
         <v>8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="10">
         <v>11</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="10">
         <v>14</v>
       </c>
-      <c r="R3" s="17">
+      <c r="S3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="10">
         <v>16</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="10">
         <v>17</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="10">
         <v>18</v>
       </c>
-      <c r="V3" s="17">
+      <c r="W3" s="10">
         <v>19</v>
       </c>
-      <c r="W3" s="17">
+      <c r="X3" s="10">
         <v>20</v>
       </c>
-      <c r="X3" s="17">
+      <c r="Y3" s="10">
         <v>21</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Z3" s="10">
         <v>22</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="10">
         <v>23</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="10">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AC3" s="10">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AD3" s="10">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AE3" s="10">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AF3" s="10">
         <v>28</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AG3" s="10">
         <v>29</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AH3" s="10">
         <v>30</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AI3" s="10">
         <v>31</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AJ3" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -898,20 +911,18 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="6">
         <v>1</v>
       </c>
       <c r="P4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="6">
         <v>2</v>
       </c>
       <c r="R4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="6">
         <v>3</v>
@@ -920,13 +931,13 @@
         <v>3</v>
       </c>
       <c r="U4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" s="6">
         <v>4</v>
       </c>
       <c r="W4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" s="6">
         <v>5</v>
@@ -935,9 +946,9 @@
         <v>5</v>
       </c>
       <c r="Z4" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="6">
         <v>6</v>
       </c>
       <c r="AB4" s="7">
@@ -964,18 +975,23 @@
       <c r="AI4" s="7">
         <v>6</v>
       </c>
+      <c r="AJ4" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -985,20 +1001,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="6">
         <v>1</v>
       </c>
       <c r="P5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="6">
         <v>2</v>
       </c>
       <c r="R5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" s="6">
         <v>3</v>
@@ -1007,13 +1021,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" s="6">
         <v>4</v>
       </c>
       <c r="W5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5" s="6">
         <v>5</v>
@@ -1022,9 +1036,9 @@
         <v>5</v>
       </c>
       <c r="Z5" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="6">
         <v>6</v>
       </c>
       <c r="AB5" s="7">
@@ -1051,26 +1065,29 @@
       <c r="AI5" s="7">
         <v>6</v>
       </c>
+      <c r="AJ5" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1079,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="7">
         <v>3</v>
       </c>
       <c r="L6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1094,13 +1111,13 @@
         <v>4</v>
       </c>
       <c r="O6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="7">
         <v>5</v>
       </c>
       <c r="Q6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="7">
         <v>6</v>
@@ -1156,29 +1173,32 @@
       <c r="AI6" s="7">
         <v>6</v>
       </c>
+      <c r="AJ6" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1187,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
         <v>3</v>
       </c>
       <c r="O7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="7">
         <v>4</v>
@@ -1201,16 +1221,16 @@
       <c r="Q7" s="7">
         <v>4</v>
       </c>
-      <c r="R7" s="6">
-        <v>5</v>
+      <c r="R7" s="7">
+        <v>4</v>
       </c>
       <c r="S7" s="6">
         <v>5</v>
       </c>
       <c r="T7" s="6">
-        <v>6</v>
-      </c>
-      <c r="U7" s="7">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6">
         <v>6</v>
       </c>
       <c r="V7" s="7">
@@ -1255,33 +1275,36 @@
       <c r="AI7" s="7">
         <v>6</v>
       </c>
+      <c r="AJ7" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="L8" s="8"/>
+      <c r="M8" s="6">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
         <v>2</v>
@@ -1290,13 +1313,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="7">
         <v>3</v>
       </c>
       <c r="S8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T8" s="7">
         <v>4</v>
@@ -1305,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="V8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W8" s="7">
         <v>5</v>
       </c>
       <c r="X8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="7">
         <v>6</v>
@@ -1346,33 +1369,36 @@
       <c r="AI8" s="7">
         <v>6</v>
       </c>
+      <c r="AJ8" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="L9" s="8"/>
+      <c r="M9" s="6">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7">
         <v>2</v>
@@ -1381,13 +1407,13 @@
         <v>2</v>
       </c>
       <c r="Q9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9" s="7">
         <v>3</v>
       </c>
       <c r="S9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" s="7">
         <v>4</v>
@@ -1396,13 +1422,13 @@
         <v>4</v>
       </c>
       <c r="V9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9" s="7">
         <v>5</v>
       </c>
       <c r="X9" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="7">
         <v>6</v>
@@ -1437,33 +1463,36 @@
       <c r="AI9" s="7">
         <v>6</v>
       </c>
+      <c r="AJ9" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7">
         <v>2</v>
@@ -1472,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="Q10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="7">
         <v>3</v>
       </c>
-      <c r="S10" s="6">
-        <v>4</v>
+      <c r="S10" s="7">
+        <v>3</v>
       </c>
       <c r="T10" s="6">
         <v>4</v>
@@ -1486,14 +1515,14 @@
       <c r="U10" s="6">
         <v>4</v>
       </c>
-      <c r="V10" s="7">
-        <v>5</v>
+      <c r="V10" s="6">
+        <v>4</v>
       </c>
       <c r="W10" s="7">
         <v>5</v>
       </c>
       <c r="X10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="7">
         <v>6</v>
@@ -1528,31 +1557,34 @@
       <c r="AI10" s="7">
         <v>6</v>
       </c>
+      <c r="AJ10" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
-        <v>2</v>
+      <c r="F11" s="6">
+        <v>1</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
@@ -1561,13 +1593,13 @@
         <v>3</v>
       </c>
       <c r="K11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" s="7">
         <v>4</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
         <v>5</v>
@@ -1576,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="7">
         <v>6</v>
@@ -1635,34 +1667,37 @@
       <c r="AI11" s="7">
         <v>6</v>
       </c>
+      <c r="AJ11" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="7">
         <v>2</v>
       </c>
       <c r="K12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="7">
         <v>3</v>
@@ -1671,24 +1706,24 @@
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="7">
         <v>4</v>
       </c>
       <c r="P12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="7">
         <v>5</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="7">
         <v>5</v>
       </c>
       <c r="S12" s="6">
-        <v>6</v>
-      </c>
-      <c r="T12" s="7">
+        <v>5</v>
+      </c>
+      <c r="T12" s="6">
         <v>6</v>
       </c>
       <c r="U12" s="7">
@@ -1736,38 +1771,41 @@
       <c r="AI12" s="7">
         <v>6</v>
       </c>
+      <c r="AJ12" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
         <v>2</v>
       </c>
       <c r="O13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7">
         <v>3</v>
@@ -1776,24 +1814,24 @@
         <v>3</v>
       </c>
       <c r="R13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S13" s="7">
         <v>4</v>
       </c>
       <c r="T13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13" s="7">
         <v>5</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="7">
         <v>5</v>
       </c>
       <c r="W13" s="6">
-        <v>6</v>
-      </c>
-      <c r="X13" s="7">
+        <v>5</v>
+      </c>
+      <c r="X13" s="6">
         <v>6</v>
       </c>
       <c r="Y13" s="7">
@@ -1829,40 +1867,43 @@
       <c r="AI13" s="7">
         <v>6</v>
       </c>
+      <c r="AJ13" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
+      <c r="M14" s="8"/>
       <c r="N14" s="7">
         <v>1</v>
       </c>
       <c r="O14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="7">
         <v>2</v>
       </c>
       <c r="Q14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="7">
         <v>3</v>
@@ -1871,24 +1912,24 @@
         <v>3</v>
       </c>
       <c r="T14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U14" s="7">
         <v>4</v>
       </c>
       <c r="V14" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W14" s="7">
         <v>5</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="7">
         <v>5</v>
       </c>
       <c r="Y14" s="6">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="6">
         <v>6</v>
       </c>
       <c r="AA14" s="7">
@@ -1918,39 +1959,42 @@
       <c r="AI14" s="7">
         <v>6</v>
       </c>
+      <c r="AJ14" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="7">
         <v>2</v>
       </c>
       <c r="P15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="7">
         <v>3</v>
@@ -1959,22 +2003,22 @@
         <v>3</v>
       </c>
       <c r="S15" s="7">
-        <v>4</v>
-      </c>
-      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="T15" s="7">
         <v>4</v>
       </c>
       <c r="U15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" s="6">
         <v>5</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>5</v>
       </c>
       <c r="X15" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="7">
         <v>6</v>
@@ -2007,15 +2051,19 @@
         <v>6</v>
       </c>
       <c r="AI15" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2024,281 +2072,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="14"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1">
         <v>800</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>850</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>900</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>950</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1050</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1100</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1150</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1200</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1250</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1300</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1350</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1400</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1450</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1500</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1550</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1600</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1650</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>1700</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>1750</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>1800</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1850</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>1900</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1950</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2000</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2050</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2100</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2150</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2200</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>2250</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>2300</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>2350</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10">
         <v>7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="10">
         <v>8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="10">
         <v>11</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="10">
         <v>14</v>
       </c>
-      <c r="R3" s="17">
+      <c r="S3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="10">
         <v>16</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="10">
         <v>17</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="10">
         <v>18</v>
       </c>
-      <c r="V3" s="17">
+      <c r="W3" s="10">
         <v>19</v>
       </c>
-      <c r="W3" s="17">
+      <c r="X3" s="10">
         <v>20</v>
       </c>
-      <c r="X3" s="17">
+      <c r="Y3" s="10">
         <v>21</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Z3" s="10">
         <v>22</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="10">
         <v>23</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="10">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AC3" s="10">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AD3" s="10">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AE3" s="10">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AF3" s="10">
         <v>28</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AG3" s="10">
         <v>29</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AH3" s="10">
         <v>30</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AI3" s="10">
         <v>31</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AJ3" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
-        <v>2</v>
+      <c r="F4" s="6">
+        <v>1</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
@@ -2307,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="7">
         <v>3</v>
@@ -2316,13 +2369,13 @@
         <v>3</v>
       </c>
       <c r="L4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" s="7">
         <v>5</v>
@@ -2331,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4" s="7">
         <v>6</v>
@@ -2387,20 +2440,25 @@
       <c r="AI4" s="7">
         <v>6</v>
       </c>
+      <c r="AJ4" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2408,38 +2466,36 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="7">
         <v>1</v>
       </c>
       <c r="P5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="7">
         <v>2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="7">
         <v>2</v>
       </c>
       <c r="S5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="6">
         <v>3</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>3</v>
       </c>
       <c r="V5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W5" s="7">
         <v>4</v>
       </c>
       <c r="X5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="7">
         <v>5</v>
@@ -2448,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="7">
         <v>6</v>
@@ -2474,34 +2530,37 @@
       <c r="AI5" s="7">
         <v>6</v>
       </c>
+      <c r="AJ5" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="7">
         <v>1</v>
       </c>
       <c r="O6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7">
         <v>2</v>
@@ -2510,22 +2569,22 @@
         <v>2</v>
       </c>
       <c r="R6" s="7">
-        <v>3</v>
-      </c>
-      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="7">
         <v>3</v>
       </c>
       <c r="T6" s="6">
         <v>3</v>
       </c>
       <c r="U6" s="6">
-        <v>4</v>
-      </c>
-      <c r="V6" s="7">
+        <v>3</v>
+      </c>
+      <c r="V6" s="6">
         <v>4</v>
       </c>
       <c r="W6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" s="7">
         <v>5</v>
@@ -2534,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="7">
         <v>6</v>
@@ -2563,32 +2622,35 @@
       <c r="AI6" s="7">
         <v>6</v>
       </c>
+      <c r="AJ6" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
         <v>2</v>
@@ -2596,8 +2658,8 @@
       <c r="O7" s="7">
         <v>2</v>
       </c>
-      <c r="P7" s="6">
-        <v>3</v>
+      <c r="P7" s="7">
+        <v>2</v>
       </c>
       <c r="Q7" s="6">
         <v>3</v>
@@ -2605,14 +2667,14 @@
       <c r="R7" s="6">
         <v>3</v>
       </c>
-      <c r="S7" s="7">
-        <v>4</v>
+      <c r="S7" s="6">
+        <v>3</v>
       </c>
       <c r="T7" s="7">
         <v>4</v>
       </c>
       <c r="U7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7">
         <v>5</v>
@@ -2621,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="X7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="7">
         <v>6</v>
@@ -2656,28 +2718,31 @@
       <c r="AI7" s="7">
         <v>6</v>
       </c>
+      <c r="AJ7" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
@@ -2686,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2695,13 +2760,13 @@
         <v>3</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="7">
         <v>4</v>
       </c>
-      <c r="Q8" s="6">
-        <v>5</v>
+      <c r="Q8" s="7">
+        <v>4</v>
       </c>
       <c r="R8" s="6">
         <v>5</v>
@@ -2709,8 +2774,8 @@
       <c r="S8" s="6">
         <v>5</v>
       </c>
-      <c r="T8" s="7">
-        <v>6</v>
+      <c r="T8" s="6">
+        <v>5</v>
       </c>
       <c r="U8" s="7">
         <v>6</v>
@@ -2755,15 +2820,19 @@
         <v>6</v>
       </c>
       <c r="AI8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2771,274 +2840,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15:AI15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1">
         <v>1550</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1600</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1650</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1700</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1750</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1800</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1850</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1900</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1950</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2000</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2050</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2100</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2150</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>2200</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>2250</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2300</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2350</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2400</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>2450</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>2500</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2550</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>2600</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>2650</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>2700</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2750</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2800</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2850</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2900</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2950</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>3000</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>3050</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>3100</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10">
         <v>7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="10">
         <v>8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="10">
         <v>11</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="10">
         <v>14</v>
       </c>
-      <c r="R3" s="17">
+      <c r="S3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="10">
         <v>16</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="10">
         <v>17</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="10">
         <v>18</v>
       </c>
-      <c r="V3" s="17">
+      <c r="W3" s="10">
         <v>19</v>
       </c>
-      <c r="W3" s="17">
+      <c r="X3" s="10">
         <v>20</v>
       </c>
-      <c r="X3" s="17">
+      <c r="Y3" s="10">
         <v>21</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Z3" s="10">
         <v>22</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="10">
         <v>23</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="10">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AC3" s="10">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AD3" s="10">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AE3" s="10">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AF3" s="10">
         <v>28</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AG3" s="10">
         <v>29</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AH3" s="10">
         <v>30</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AI3" s="10">
         <v>31</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AJ3" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3048,84 +3124,87 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="O4" s="18">
-        <v>1</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>2</v>
-      </c>
-      <c r="R4" s="18">
-        <v>3</v>
-      </c>
-      <c r="S4" s="18">
-        <v>3</v>
-      </c>
-      <c r="T4" s="18">
-        <v>3</v>
-      </c>
-      <c r="U4" s="18">
-        <v>4</v>
-      </c>
-      <c r="V4" s="18">
-        <v>4</v>
-      </c>
-      <c r="W4" s="18">
-        <v>5</v>
-      </c>
-      <c r="X4" s="18">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="18">
+      <c r="N4" s="4"/>
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="11">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11">
+        <v>4</v>
+      </c>
+      <c r="W4" s="11">
+        <v>4</v>
+      </c>
+      <c r="X4" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3135,1037 +3214,1069 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="18">
-        <v>1</v>
-      </c>
-      <c r="P5" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>3</v>
-      </c>
-      <c r="S5" s="18">
-        <v>3</v>
-      </c>
-      <c r="T5" s="18">
-        <v>3</v>
-      </c>
-      <c r="U5" s="18">
-        <v>4</v>
-      </c>
-      <c r="V5" s="18">
-        <v>4</v>
-      </c>
-      <c r="W5" s="18">
-        <v>5</v>
-      </c>
-      <c r="X5" s="18">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="18">
+      <c r="N5" s="4"/>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>3</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11">
+        <v>4</v>
+      </c>
+      <c r="W5" s="11">
+        <v>4</v>
+      </c>
+      <c r="X5" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>4</v>
+      </c>
+      <c r="N6" s="11">
+        <v>4</v>
+      </c>
+      <c r="O6" s="11">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>5</v>
+      </c>
+      <c r="R6" s="11">
+        <v>6</v>
+      </c>
+      <c r="S6" s="11">
+        <v>6</v>
+      </c>
+      <c r="T6" s="11">
+        <v>6</v>
+      </c>
+      <c r="U6" s="11">
+        <v>6</v>
+      </c>
+      <c r="V6" s="11">
+        <v>6</v>
+      </c>
+      <c r="W6" s="11">
+        <v>6</v>
+      </c>
+      <c r="X6" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18">
-        <v>2</v>
-      </c>
-      <c r="I6" s="18">
-        <v>3</v>
-      </c>
-      <c r="J6" s="18">
-        <v>3</v>
-      </c>
-      <c r="K6" s="18">
-        <v>3</v>
-      </c>
-      <c r="L6" s="18">
-        <v>4</v>
-      </c>
-      <c r="M6" s="18">
-        <v>4</v>
-      </c>
-      <c r="N6" s="18">
-        <v>5</v>
-      </c>
-      <c r="O6" s="18">
-        <v>5</v>
-      </c>
-      <c r="P6" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>6</v>
-      </c>
-      <c r="R6" s="18">
-        <v>6</v>
-      </c>
-      <c r="S6" s="18">
-        <v>6</v>
-      </c>
-      <c r="T6" s="18">
-        <v>6</v>
-      </c>
-      <c r="U6" s="18">
-        <v>6</v>
-      </c>
-      <c r="V6" s="18">
-        <v>6</v>
-      </c>
-      <c r="W6" s="18">
-        <v>6</v>
-      </c>
-      <c r="X6" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="18">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="11">
+        <v>3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>4</v>
+      </c>
+      <c r="R7" s="11">
+        <v>5</v>
+      </c>
+      <c r="S7" s="11">
+        <v>5</v>
+      </c>
+      <c r="T7" s="11">
+        <v>5</v>
+      </c>
+      <c r="U7" s="11">
+        <v>6</v>
+      </c>
+      <c r="V7" s="11">
+        <v>6</v>
+      </c>
+      <c r="W7" s="11">
+        <v>6</v>
+      </c>
+      <c r="X7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>2</v>
-      </c>
-      <c r="K7" s="18">
-        <v>2</v>
-      </c>
-      <c r="L7" s="18">
-        <v>3</v>
-      </c>
-      <c r="M7" s="18">
-        <v>3</v>
-      </c>
-      <c r="N7" s="18">
-        <v>3</v>
-      </c>
-      <c r="O7" s="18">
-        <v>4</v>
-      </c>
-      <c r="P7" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>5</v>
-      </c>
-      <c r="R7" s="18">
-        <v>5</v>
-      </c>
-      <c r="S7" s="18">
-        <v>5</v>
-      </c>
-      <c r="T7" s="18">
-        <v>6</v>
-      </c>
-      <c r="U7" s="18">
-        <v>6</v>
-      </c>
-      <c r="V7" s="18">
-        <v>6</v>
-      </c>
-      <c r="W7" s="18">
-        <v>6</v>
-      </c>
-      <c r="X7" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="18">
-        <v>1</v>
-      </c>
-      <c r="M8" s="18">
-        <v>1</v>
-      </c>
-      <c r="N8" s="18">
-        <v>2</v>
-      </c>
-      <c r="O8" s="18">
-        <v>2</v>
-      </c>
-      <c r="P8" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>3</v>
-      </c>
-      <c r="R8" s="18">
-        <v>3</v>
-      </c>
-      <c r="S8" s="18">
-        <v>4</v>
-      </c>
-      <c r="T8" s="18">
-        <v>4</v>
-      </c>
-      <c r="U8" s="18">
-        <v>5</v>
-      </c>
-      <c r="V8" s="18">
-        <v>5</v>
-      </c>
-      <c r="W8" s="18">
-        <v>5</v>
-      </c>
-      <c r="X8" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="18">
+      <c r="L8" s="4"/>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>3</v>
+      </c>
+      <c r="R8" s="11">
+        <v>3</v>
+      </c>
+      <c r="S8" s="11">
+        <v>3</v>
+      </c>
+      <c r="T8" s="11">
+        <v>4</v>
+      </c>
+      <c r="U8" s="11">
+        <v>4</v>
+      </c>
+      <c r="V8" s="11">
+        <v>5</v>
+      </c>
+      <c r="W8" s="11">
+        <v>5</v>
+      </c>
+      <c r="X8" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="18">
-        <v>1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>1</v>
-      </c>
-      <c r="N9" s="18">
-        <v>2</v>
-      </c>
-      <c r="O9" s="18">
-        <v>2</v>
-      </c>
-      <c r="P9" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>3</v>
-      </c>
-      <c r="R9" s="18">
-        <v>3</v>
-      </c>
-      <c r="S9" s="18">
-        <v>4</v>
-      </c>
-      <c r="T9" s="18">
-        <v>4</v>
-      </c>
-      <c r="U9" s="18">
-        <v>5</v>
-      </c>
-      <c r="V9" s="18">
-        <v>5</v>
-      </c>
-      <c r="W9" s="18">
-        <v>5</v>
-      </c>
-      <c r="X9" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI9" s="18">
+      <c r="L9" s="4"/>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>3</v>
+      </c>
+      <c r="R9" s="11">
+        <v>3</v>
+      </c>
+      <c r="S9" s="11">
+        <v>3</v>
+      </c>
+      <c r="T9" s="11">
+        <v>4</v>
+      </c>
+      <c r="U9" s="11">
+        <v>4</v>
+      </c>
+      <c r="V9" s="11">
+        <v>5</v>
+      </c>
+      <c r="W9" s="11">
+        <v>5</v>
+      </c>
+      <c r="X9" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="18">
-        <v>1</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1</v>
-      </c>
-      <c r="N10" s="18">
-        <v>2</v>
-      </c>
-      <c r="O10" s="18">
-        <v>2</v>
-      </c>
-      <c r="P10" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>3</v>
-      </c>
-      <c r="R10" s="18">
-        <v>3</v>
-      </c>
-      <c r="S10" s="18">
-        <v>4</v>
-      </c>
-      <c r="T10" s="18">
-        <v>4</v>
-      </c>
-      <c r="U10" s="18">
-        <v>5</v>
-      </c>
-      <c r="V10" s="18">
-        <v>5</v>
-      </c>
-      <c r="W10" s="18">
-        <v>5</v>
-      </c>
-      <c r="X10" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="18">
+      <c r="L10" s="8"/>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>3</v>
+      </c>
+      <c r="R10" s="11">
+        <v>3</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3</v>
+      </c>
+      <c r="T10" s="11">
+        <v>4</v>
+      </c>
+      <c r="U10" s="11">
+        <v>4</v>
+      </c>
+      <c r="V10" s="11">
+        <v>5</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5</v>
+      </c>
+      <c r="X10" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
-        <v>2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3</v>
-      </c>
-      <c r="I11" s="18">
-        <v>3</v>
-      </c>
-      <c r="J11" s="18">
-        <v>3</v>
-      </c>
-      <c r="K11" s="18">
-        <v>4</v>
-      </c>
-      <c r="L11" s="18">
-        <v>4</v>
-      </c>
-      <c r="M11" s="18">
-        <v>5</v>
-      </c>
-      <c r="N11" s="18">
-        <v>5</v>
-      </c>
-      <c r="O11" s="18">
-        <v>5</v>
-      </c>
-      <c r="P11" s="18">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>6</v>
-      </c>
-      <c r="R11" s="18">
-        <v>6</v>
-      </c>
-      <c r="S11" s="18">
-        <v>6</v>
-      </c>
-      <c r="T11" s="18">
-        <v>6</v>
-      </c>
-      <c r="U11" s="18">
-        <v>6</v>
-      </c>
-      <c r="V11" s="18">
-        <v>6</v>
-      </c>
-      <c r="W11" s="18">
-        <v>6</v>
-      </c>
-      <c r="X11" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH11" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI11" s="18">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4</v>
+      </c>
+      <c r="N11" s="11">
+        <v>5</v>
+      </c>
+      <c r="O11" s="11">
+        <v>5</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="11">
+        <v>6</v>
+      </c>
+      <c r="S11" s="11">
+        <v>6</v>
+      </c>
+      <c r="T11" s="11">
+        <v>6</v>
+      </c>
+      <c r="U11" s="11">
+        <v>6</v>
+      </c>
+      <c r="V11" s="11">
+        <v>6</v>
+      </c>
+      <c r="W11" s="11">
+        <v>6</v>
+      </c>
+      <c r="X11" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>2</v>
-      </c>
-      <c r="J12" s="18">
-        <v>2</v>
-      </c>
-      <c r="K12" s="18">
-        <v>3</v>
-      </c>
-      <c r="L12" s="18">
-        <v>3</v>
-      </c>
-      <c r="M12" s="18">
-        <v>3</v>
-      </c>
-      <c r="N12" s="18">
-        <v>4</v>
-      </c>
-      <c r="O12" s="18">
-        <v>4</v>
-      </c>
-      <c r="P12" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>5</v>
-      </c>
-      <c r="R12" s="18">
-        <v>5</v>
-      </c>
-      <c r="S12" s="18">
-        <v>6</v>
-      </c>
-      <c r="T12" s="18">
-        <v>6</v>
-      </c>
-      <c r="U12" s="18">
-        <v>6</v>
-      </c>
-      <c r="V12" s="18">
-        <v>6</v>
-      </c>
-      <c r="W12" s="18">
-        <v>6</v>
-      </c>
-      <c r="X12" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI12" s="18">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11">
+        <v>3</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3</v>
+      </c>
+      <c r="N12" s="11">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4</v>
+      </c>
+      <c r="P12" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>5</v>
+      </c>
+      <c r="R12" s="11">
+        <v>5</v>
+      </c>
+      <c r="S12" s="11">
+        <v>5</v>
+      </c>
+      <c r="T12" s="11">
+        <v>6</v>
+      </c>
+      <c r="U12" s="11">
+        <v>6</v>
+      </c>
+      <c r="V12" s="11">
+        <v>6</v>
+      </c>
+      <c r="W12" s="11">
+        <v>6</v>
+      </c>
+      <c r="X12" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="18">
-        <v>1</v>
-      </c>
-      <c r="M13" s="18">
-        <v>2</v>
-      </c>
-      <c r="N13" s="18">
-        <v>2</v>
-      </c>
-      <c r="O13" s="18">
-        <v>3</v>
-      </c>
-      <c r="P13" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>3</v>
-      </c>
-      <c r="R13" s="18">
-        <v>4</v>
-      </c>
-      <c r="S13" s="18">
-        <v>4</v>
-      </c>
-      <c r="T13" s="18">
-        <v>5</v>
-      </c>
-      <c r="U13" s="18">
-        <v>5</v>
-      </c>
-      <c r="V13" s="18">
-        <v>5</v>
-      </c>
-      <c r="W13" s="18">
-        <v>6</v>
-      </c>
-      <c r="X13" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI13" s="18">
+      <c r="K13" s="8"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2</v>
+      </c>
+      <c r="P13" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>3</v>
+      </c>
+      <c r="R13" s="11">
+        <v>3</v>
+      </c>
+      <c r="S13" s="11">
+        <v>4</v>
+      </c>
+      <c r="T13" s="11">
+        <v>4</v>
+      </c>
+      <c r="U13" s="11">
+        <v>5</v>
+      </c>
+      <c r="V13" s="11">
+        <v>5</v>
+      </c>
+      <c r="W13" s="11">
+        <v>5</v>
+      </c>
+      <c r="X13" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="18">
-        <v>1</v>
-      </c>
-      <c r="N14" s="18">
-        <v>1</v>
-      </c>
-      <c r="O14" s="18">
-        <v>2</v>
-      </c>
-      <c r="P14" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>3</v>
-      </c>
-      <c r="R14" s="18">
-        <v>3</v>
-      </c>
-      <c r="S14" s="18">
-        <v>3</v>
-      </c>
-      <c r="T14" s="18">
-        <v>4</v>
-      </c>
-      <c r="U14" s="18">
-        <v>4</v>
-      </c>
-      <c r="V14" s="18">
-        <v>5</v>
-      </c>
-      <c r="W14" s="18">
-        <v>5</v>
-      </c>
-      <c r="X14" s="18">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH14" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI14" s="18">
+      <c r="M14" s="8"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2</v>
+      </c>
+      <c r="R14" s="11">
+        <v>3</v>
+      </c>
+      <c r="S14" s="11">
+        <v>3</v>
+      </c>
+      <c r="T14" s="11">
+        <v>3</v>
+      </c>
+      <c r="U14" s="11">
+        <v>4</v>
+      </c>
+      <c r="V14" s="11">
+        <v>4</v>
+      </c>
+      <c r="W14" s="11">
+        <v>5</v>
+      </c>
+      <c r="X14" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="18">
-        <v>1</v>
-      </c>
-      <c r="M15" s="18">
-        <v>1</v>
-      </c>
-      <c r="N15" s="18">
-        <v>2</v>
-      </c>
-      <c r="O15" s="18">
-        <v>2</v>
-      </c>
-      <c r="P15" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>3</v>
-      </c>
-      <c r="R15" s="18">
-        <v>3</v>
-      </c>
-      <c r="S15" s="18">
-        <v>4</v>
-      </c>
-      <c r="T15" s="18">
-        <v>4</v>
-      </c>
-      <c r="U15" s="18">
-        <v>5</v>
-      </c>
-      <c r="V15" s="18">
-        <v>5</v>
-      </c>
-      <c r="W15" s="18">
-        <v>5</v>
-      </c>
-      <c r="X15" s="18">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH15" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI15" s="18">
+      <c r="L15" s="8"/>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>3</v>
+      </c>
+      <c r="R15" s="11">
+        <v>3</v>
+      </c>
+      <c r="S15" s="11">
+        <v>3</v>
+      </c>
+      <c r="T15" s="11">
+        <v>4</v>
+      </c>
+      <c r="U15" s="11">
+        <v>4</v>
+      </c>
+      <c r="V15" s="11">
+        <v>5</v>
+      </c>
+      <c r="W15" s="11">
+        <v>5</v>
+      </c>
+      <c r="X15" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="11">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4173,386 +4284,396 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="1" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="14"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1">
         <v>800</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>850</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>900</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>950</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1050</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1100</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1150</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1200</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1250</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1300</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1350</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1400</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1450</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1500</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1550</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1600</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1650</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>1700</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>1750</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>1800</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1850</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>1900</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1950</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2000</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2050</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2100</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2150</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2200</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>2250</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>2300</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>2350</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
-        <v>5</v>
-      </c>
-      <c r="I3" s="17">
-        <v>6</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10">
         <v>7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="10">
         <v>8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="10">
         <v>11</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="10">
         <v>14</v>
       </c>
-      <c r="R3" s="17">
+      <c r="S3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="10">
         <v>16</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="10">
         <v>17</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="10">
         <v>18</v>
       </c>
-      <c r="V3" s="17">
+      <c r="W3" s="10">
         <v>19</v>
       </c>
-      <c r="W3" s="17">
+      <c r="X3" s="10">
         <v>20</v>
       </c>
-      <c r="X3" s="17">
+      <c r="Y3" s="10">
         <v>21</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Z3" s="10">
         <v>22</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="10">
         <v>23</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="10">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AC3" s="10">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AD3" s="10">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AE3" s="10">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AF3" s="10">
         <v>28</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AG3" s="10">
         <v>29</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AH3" s="10">
         <v>30</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AI3" s="10">
         <v>31</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AJ3" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>2</v>
-      </c>
-      <c r="G4" s="19">
-        <v>2</v>
-      </c>
-      <c r="H4" s="19">
-        <v>2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>3</v>
-      </c>
-      <c r="J4" s="19">
-        <v>3</v>
-      </c>
-      <c r="K4" s="19">
-        <v>3</v>
-      </c>
-      <c r="L4" s="19">
-        <v>4</v>
-      </c>
-      <c r="M4" s="19">
-        <v>4</v>
-      </c>
-      <c r="N4" s="19">
-        <v>5</v>
-      </c>
-      <c r="O4" s="19">
-        <v>5</v>
-      </c>
-      <c r="P4" s="19">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>6</v>
-      </c>
-      <c r="R4" s="19">
-        <v>6</v>
-      </c>
-      <c r="S4" s="19">
-        <v>6</v>
-      </c>
-      <c r="T4" s="19">
-        <v>6</v>
-      </c>
-      <c r="U4" s="19">
-        <v>6</v>
-      </c>
-      <c r="V4" s="19">
-        <v>6</v>
-      </c>
-      <c r="W4" s="19">
-        <v>6</v>
-      </c>
-      <c r="X4" s="19">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AE4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="19">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12">
+        <v>4</v>
+      </c>
+      <c r="O4" s="12">
+        <v>5</v>
+      </c>
+      <c r="P4" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>5</v>
+      </c>
+      <c r="R4" s="12">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12">
+        <v>6</v>
+      </c>
+      <c r="U4" s="12">
+        <v>6</v>
+      </c>
+      <c r="V4" s="12">
+        <v>6</v>
+      </c>
+      <c r="W4" s="12">
+        <v>6</v>
+      </c>
+      <c r="X4" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -4560,362 +4681,373 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="19">
-        <v>1</v>
-      </c>
-      <c r="O5" s="19">
-        <v>1</v>
-      </c>
-      <c r="P5" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>2</v>
-      </c>
-      <c r="S5" s="18">
-        <v>3</v>
-      </c>
-      <c r="T5" s="18">
-        <v>3</v>
-      </c>
-      <c r="U5" s="19">
-        <v>3</v>
-      </c>
-      <c r="V5" s="19">
-        <v>4</v>
-      </c>
-      <c r="W5" s="19">
-        <v>4</v>
-      </c>
-      <c r="X5" s="19">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="19">
+      <c r="N5" s="8"/>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>2</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="12">
+        <v>3</v>
+      </c>
+      <c r="W5" s="12">
+        <v>4</v>
+      </c>
+      <c r="X5" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19">
-        <v>2</v>
-      </c>
-      <c r="P6" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>2</v>
-      </c>
-      <c r="R6" s="19">
-        <v>3</v>
-      </c>
-      <c r="S6" s="18">
-        <v>3</v>
-      </c>
-      <c r="T6" s="18">
-        <v>3</v>
-      </c>
-      <c r="U6" s="18">
-        <v>4</v>
-      </c>
-      <c r="V6" s="19">
-        <v>4</v>
-      </c>
-      <c r="W6" s="19">
-        <v>5</v>
-      </c>
-      <c r="X6" s="19">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="19">
+      <c r="L6" s="8"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12">
+        <v>3</v>
+      </c>
+      <c r="T6" s="11">
+        <v>3</v>
+      </c>
+      <c r="U6" s="11">
+        <v>3</v>
+      </c>
+      <c r="V6" s="11">
+        <v>4</v>
+      </c>
+      <c r="W6" s="12">
+        <v>4</v>
+      </c>
+      <c r="X6" s="12">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>2</v>
-      </c>
-      <c r="N7" s="19">
-        <v>2</v>
-      </c>
-      <c r="O7" s="19">
-        <v>2</v>
-      </c>
-      <c r="P7" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>3</v>
-      </c>
-      <c r="R7" s="18">
-        <v>3</v>
-      </c>
-      <c r="S7" s="19">
-        <v>4</v>
-      </c>
-      <c r="T7" s="19">
-        <v>4</v>
-      </c>
-      <c r="U7" s="19">
-        <v>5</v>
-      </c>
-      <c r="V7" s="19">
-        <v>5</v>
-      </c>
-      <c r="W7" s="19">
-        <v>5</v>
-      </c>
-      <c r="X7" s="19">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="19">
+      <c r="K7" s="8"/>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2</v>
+      </c>
+      <c r="P7" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>3</v>
+      </c>
+      <c r="R7" s="11">
+        <v>3</v>
+      </c>
+      <c r="S7" s="11">
+        <v>3</v>
+      </c>
+      <c r="T7" s="12">
+        <v>4</v>
+      </c>
+      <c r="U7" s="12">
+        <v>4</v>
+      </c>
+      <c r="V7" s="12">
+        <v>5</v>
+      </c>
+      <c r="W7" s="12">
+        <v>5</v>
+      </c>
+      <c r="X7" s="12">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-      <c r="K8" s="19">
-        <v>2</v>
-      </c>
-      <c r="L8" s="19">
-        <v>3</v>
-      </c>
-      <c r="M8" s="19">
-        <v>3</v>
-      </c>
-      <c r="N8" s="19">
-        <v>3</v>
-      </c>
-      <c r="O8" s="19">
-        <v>4</v>
-      </c>
-      <c r="P8" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>5</v>
-      </c>
-      <c r="R8" s="18">
-        <v>5</v>
-      </c>
-      <c r="S8" s="18">
-        <v>5</v>
-      </c>
-      <c r="T8" s="19">
-        <v>6</v>
-      </c>
-      <c r="U8" s="19">
-        <v>6</v>
-      </c>
-      <c r="V8" s="19">
-        <v>6</v>
-      </c>
-      <c r="W8" s="19">
-        <v>6</v>
-      </c>
-      <c r="X8" s="19">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="19">
+      <c r="F8" s="4"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3</v>
+      </c>
+      <c r="N8" s="12">
+        <v>3</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3</v>
+      </c>
+      <c r="P8" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>4</v>
+      </c>
+      <c r="R8" s="11">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11">
+        <v>5</v>
+      </c>
+      <c r="T8" s="11">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12">
+        <v>6</v>
+      </c>
+      <c r="V8" s="12">
+        <v>6</v>
+      </c>
+      <c r="W8" s="12">
+        <v>6</v>
+      </c>
+      <c r="X8" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="12">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
